--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH187"/>
+  <dimension ref="A1:AW187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,81 @@
           <t>_key_changes_Розвиток закладів харчування та місцевої кухні</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>_key_changes_Більше екскурсій та гідів, в тому числі іноземними мовами</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>_key_changes_Більше місць для проживання (готелі, хостели, садиби)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>_key_changes_Більше рекламних кампаній про місто за кордоном та в Україні</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>_key_changes_Краще туристичне зонування та навігація (вказівники, карти)</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>_key_changes_Організація нових культурних та розважальних подій</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>_key_changes_Покращення доріг і транспортного сполучення</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>_key_changes_Піша доріжка, яка обєднуватиме туристичні об’єкти</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>_key_changes_Розвиток закладів харчування та місцевої кухні</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>_key_itemsВали городища</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>_key_itemsВежа на консервному заводі</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>_key_itemsЗаклади харчування</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>_key_itemsНе буду відповідати</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>_key_itemsТаких немає</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>_key_itemsХрами</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>_key_itemsЦентральна площа</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -739,6 +814,51 @@
       <c r="AH2" t="n">
         <v>0</v>
       </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -877,6 +997,51 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1015,6 +1180,51 @@
       <c r="AH4" t="n">
         <v>0</v>
       </c>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1149,6 +1359,51 @@
       <c r="AH5" t="n">
         <v>0</v>
       </c>
+      <c r="AI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1267,6 +1522,51 @@
       <c r="AH6" t="n">
         <v>0</v>
       </c>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1396,6 +1696,51 @@
       </c>
       <c r="AH7" t="n">
         <v>1</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1505,6 +1850,51 @@
       <c r="AH8" t="n">
         <v>0</v>
       </c>
+      <c r="AI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1639,6 +2029,51 @@
       <c r="AH9" t="n">
         <v>1</v>
       </c>
+      <c r="AI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1779,6 +2214,51 @@
       <c r="AH10" t="n">
         <v>0</v>
       </c>
+      <c r="AI10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1907,6 +2387,51 @@
       <c r="AH11" t="n">
         <v>0</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2027,6 +2552,51 @@
       <c r="AH12" t="n">
         <v>0</v>
       </c>
+      <c r="AI12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2147,6 +2717,51 @@
       <c r="AH13" t="n">
         <v>0</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2281,6 +2896,51 @@
       <c r="AH14" t="n">
         <v>0</v>
       </c>
+      <c r="AI14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2415,6 +3075,51 @@
       <c r="AH15" t="n">
         <v>0</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2549,6 +3254,51 @@
       <c r="AH16" t="n">
         <v>0</v>
       </c>
+      <c r="AI16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2667,6 +3417,51 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2789,6 +3584,51 @@
       <c r="AH18" t="n">
         <v>0</v>
       </c>
+      <c r="AI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2913,6 +3753,51 @@
       <c r="AH19" t="n">
         <v>0</v>
       </c>
+      <c r="AI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3045,6 +3930,51 @@
       <c r="AH20" t="n">
         <v>0</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3177,6 +4107,51 @@
       <c r="AH21" t="n">
         <v>0</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3299,6 +4274,51 @@
       <c r="AH22" t="n">
         <v>0</v>
       </c>
+      <c r="AI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3427,6 +4447,51 @@
       <c r="AH23" t="n">
         <v>0</v>
       </c>
+      <c r="AI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3545,6 +4610,51 @@
       <c r="AH24" t="n">
         <v>0</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3675,6 +4785,51 @@
       <c r="AH25" t="n">
         <v>1</v>
       </c>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3811,6 +4966,51 @@
       <c r="AH26" t="n">
         <v>0</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3935,6 +5135,51 @@
       <c r="AH27" t="n">
         <v>0</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -4059,6 +5304,51 @@
       <c r="AH28" t="n">
         <v>1</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -4175,6 +5465,51 @@
       <c r="AH29" t="n">
         <v>0</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -4301,6 +5636,51 @@
       <c r="AH30" t="n">
         <v>0</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -4437,6 +5817,51 @@
       <c r="AH31" t="n">
         <v>0</v>
       </c>
+      <c r="AI31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4567,6 +5992,51 @@
       <c r="AH32" t="n">
         <v>0</v>
       </c>
+      <c r="AI32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4683,6 +6153,51 @@
       <c r="AH33" t="n">
         <v>0</v>
       </c>
+      <c r="AI33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4819,6 +6334,51 @@
       <c r="AH34" t="n">
         <v>0</v>
       </c>
+      <c r="AI34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4949,6 +6509,51 @@
       <c r="AH35" t="n">
         <v>0</v>
       </c>
+      <c r="AI35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -5083,6 +6688,51 @@
         <v>0</v>
       </c>
       <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5207,6 +6857,51 @@
       <c r="AH37" t="n">
         <v>0</v>
       </c>
+      <c r="AI37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -5333,6 +7028,51 @@
         <v>0</v>
       </c>
       <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5443,6 +7183,51 @@
         <v>0</v>
       </c>
       <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5547,6 +7332,51 @@
       <c r="AH40" t="n">
         <v>0</v>
       </c>
+      <c r="AI40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -5661,6 +7491,51 @@
       <c r="AH41" t="n">
         <v>0</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -5791,6 +7666,51 @@
       <c r="AH42" t="n">
         <v>0</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5910,6 +7830,51 @@
       </c>
       <c r="AH43" t="n">
         <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -6017,6 +7982,51 @@
       <c r="AH44" t="n">
         <v>1</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -6119,6 +8129,51 @@
       <c r="AH45" t="n">
         <v>0</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -6249,6 +8304,51 @@
       <c r="AH46" t="n">
         <v>0</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -6379,6 +8479,51 @@
       <c r="AH47" t="n">
         <v>0</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -6514,6 +8659,51 @@
       </c>
       <c r="AH48" t="n">
         <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -6629,6 +8819,51 @@
       <c r="AH49" t="n">
         <v>0</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -6743,6 +8978,51 @@
       <c r="AH50" t="n">
         <v>0</v>
       </c>
+      <c r="AI50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -6877,6 +9157,51 @@
       <c r="AH51" t="n">
         <v>1</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -7017,6 +9342,51 @@
       <c r="AH52" t="n">
         <v>0</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -7157,6 +9527,51 @@
       <c r="AH53" t="n">
         <v>1</v>
       </c>
+      <c r="AI53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -7299,6 +9714,51 @@
       <c r="AH54" t="n">
         <v>0</v>
       </c>
+      <c r="AI54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -7441,6 +9901,51 @@
       <c r="AH55" t="n">
         <v>1</v>
       </c>
+      <c r="AI55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -7583,6 +10088,51 @@
       <c r="AH56" t="n">
         <v>1</v>
       </c>
+      <c r="AI56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -7725,6 +10275,51 @@
       <c r="AH57" t="n">
         <v>0</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -7867,6 +10462,51 @@
       <c r="AH58" t="n">
         <v>1</v>
       </c>
+      <c r="AI58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -8009,6 +10649,51 @@
       <c r="AH59" t="n">
         <v>1</v>
       </c>
+      <c r="AI59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -8151,6 +10836,51 @@
       <c r="AH60" t="n">
         <v>0</v>
       </c>
+      <c r="AI60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -8293,6 +11023,51 @@
       <c r="AH61" t="n">
         <v>1</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -8435,6 +11210,51 @@
       <c r="AH62" t="n">
         <v>0</v>
       </c>
+      <c r="AI62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -8577,6 +11397,51 @@
       <c r="AH63" t="n">
         <v>1</v>
       </c>
+      <c r="AI63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -8719,6 +11584,51 @@
       <c r="AH64" t="n">
         <v>1</v>
       </c>
+      <c r="AI64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -8861,6 +11771,51 @@
       <c r="AH65" t="n">
         <v>1</v>
       </c>
+      <c r="AI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -9003,6 +11958,51 @@
       <c r="AH66" t="n">
         <v>0</v>
       </c>
+      <c r="AI66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -9145,6 +12145,51 @@
       <c r="AH67" t="n">
         <v>1</v>
       </c>
+      <c r="AI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -9287,6 +12332,51 @@
       <c r="AH68" t="n">
         <v>1</v>
       </c>
+      <c r="AI68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -9429,6 +12519,51 @@
       <c r="AH69" t="n">
         <v>0</v>
       </c>
+      <c r="AI69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -9571,6 +12706,51 @@
       <c r="AH70" t="n">
         <v>0</v>
       </c>
+      <c r="AI70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -9713,6 +12893,51 @@
       <c r="AH71" t="n">
         <v>1</v>
       </c>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -9853,6 +13078,51 @@
       <c r="AH72" t="n">
         <v>0</v>
       </c>
+      <c r="AI72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -9995,6 +13265,51 @@
       <c r="AH73" t="n">
         <v>1</v>
       </c>
+      <c r="AI73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -10137,6 +13452,51 @@
       <c r="AH74" t="n">
         <v>0</v>
       </c>
+      <c r="AI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -10279,6 +13639,51 @@
       <c r="AH75" t="n">
         <v>0</v>
       </c>
+      <c r="AI75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -10421,6 +13826,51 @@
       <c r="AH76" t="n">
         <v>0</v>
       </c>
+      <c r="AI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -10563,6 +14013,51 @@
       <c r="AH77" t="n">
         <v>1</v>
       </c>
+      <c r="AI77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -10705,6 +14200,51 @@
       <c r="AH78" t="n">
         <v>1</v>
       </c>
+      <c r="AI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -10847,6 +14387,51 @@
       <c r="AH79" t="n">
         <v>0</v>
       </c>
+      <c r="AI79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -10983,6 +14568,51 @@
       <c r="AH80" t="n">
         <v>1</v>
       </c>
+      <c r="AI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -11119,6 +14749,51 @@
       <c r="AH81" t="n">
         <v>0</v>
       </c>
+      <c r="AI81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -11261,6 +14936,51 @@
       <c r="AH82" t="n">
         <v>1</v>
       </c>
+      <c r="AI82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -11403,6 +15123,51 @@
       <c r="AH83" t="n">
         <v>0</v>
       </c>
+      <c r="AI83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -11545,6 +15310,51 @@
       <c r="AH84" t="n">
         <v>1</v>
       </c>
+      <c r="AI84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -11687,6 +15497,51 @@
       <c r="AH85" t="n">
         <v>1</v>
       </c>
+      <c r="AI85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -11829,6 +15684,51 @@
       <c r="AH86" t="n">
         <v>0</v>
       </c>
+      <c r="AI86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -11971,6 +15871,51 @@
       <c r="AH87" t="n">
         <v>1</v>
       </c>
+      <c r="AI87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -12113,6 +16058,51 @@
       <c r="AH88" t="n">
         <v>0</v>
       </c>
+      <c r="AI88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -12255,6 +16245,51 @@
       <c r="AH89" t="n">
         <v>1</v>
       </c>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -12397,6 +16432,51 @@
       <c r="AH90" t="n">
         <v>0</v>
       </c>
+      <c r="AI90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -12535,6 +16615,51 @@
       <c r="AH91" t="n">
         <v>0</v>
       </c>
+      <c r="AI91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -12677,6 +16802,51 @@
       <c r="AH92" t="n">
         <v>0</v>
       </c>
+      <c r="AI92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -12819,6 +16989,51 @@
       <c r="AH93" t="n">
         <v>0</v>
       </c>
+      <c r="AI93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -12951,6 +17166,51 @@
       <c r="AH94" t="n">
         <v>0</v>
       </c>
+      <c r="AI94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -13093,6 +17353,51 @@
       <c r="AH95" t="n">
         <v>1</v>
       </c>
+      <c r="AI95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -13235,6 +17540,51 @@
       <c r="AH96" t="n">
         <v>1</v>
       </c>
+      <c r="AI96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -13377,6 +17727,51 @@
       <c r="AH97" t="n">
         <v>0</v>
       </c>
+      <c r="AI97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -13519,6 +17914,51 @@
       <c r="AH98" t="n">
         <v>1</v>
       </c>
+      <c r="AI98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -13661,6 +18101,51 @@
       <c r="AH99" t="n">
         <v>0</v>
       </c>
+      <c r="AI99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -13803,6 +18288,51 @@
       <c r="AH100" t="n">
         <v>1</v>
       </c>
+      <c r="AI100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -13945,6 +18475,51 @@
       <c r="AH101" t="n">
         <v>0</v>
       </c>
+      <c r="AI101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -14087,6 +18662,51 @@
       <c r="AH102" t="n">
         <v>0</v>
       </c>
+      <c r="AI102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -14229,6 +18849,51 @@
       <c r="AH103" t="n">
         <v>0</v>
       </c>
+      <c r="AI103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -14371,6 +19036,51 @@
       <c r="AH104" t="n">
         <v>0</v>
       </c>
+      <c r="AI104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -14513,6 +19223,51 @@
       <c r="AH105" t="n">
         <v>0</v>
       </c>
+      <c r="AI105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -14655,6 +19410,51 @@
       <c r="AH106" t="n">
         <v>0</v>
       </c>
+      <c r="AI106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -14791,6 +19591,51 @@
       <c r="AH107" t="n">
         <v>0</v>
       </c>
+      <c r="AI107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -14933,6 +19778,51 @@
       <c r="AH108" t="n">
         <v>1</v>
       </c>
+      <c r="AI108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -15075,6 +19965,51 @@
       <c r="AH109" t="n">
         <v>0</v>
       </c>
+      <c r="AI109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -15217,6 +20152,51 @@
       <c r="AH110" t="n">
         <v>0</v>
       </c>
+      <c r="AI110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -15357,6 +20337,51 @@
       <c r="AH111" t="n">
         <v>0</v>
       </c>
+      <c r="AI111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -15499,6 +20524,51 @@
       <c r="AH112" t="n">
         <v>1</v>
       </c>
+      <c r="AI112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -15637,6 +20707,51 @@
       <c r="AH113" t="n">
         <v>0</v>
       </c>
+      <c r="AI113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -15779,6 +20894,51 @@
       <c r="AH114" t="n">
         <v>1</v>
       </c>
+      <c r="AI114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -15921,6 +21081,51 @@
       <c r="AH115" t="n">
         <v>0</v>
       </c>
+      <c r="AI115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -16057,6 +21262,51 @@
       <c r="AH116" t="n">
         <v>1</v>
       </c>
+      <c r="AI116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -16195,6 +21445,51 @@
       <c r="AH117" t="n">
         <v>0</v>
       </c>
+      <c r="AI117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -16337,6 +21632,51 @@
       <c r="AH118" t="n">
         <v>1</v>
       </c>
+      <c r="AI118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -16479,6 +21819,51 @@
       <c r="AH119" t="n">
         <v>0</v>
       </c>
+      <c r="AI119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -16617,6 +22002,51 @@
       <c r="AH120" t="n">
         <v>0</v>
       </c>
+      <c r="AI120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -16759,6 +22189,51 @@
       <c r="AH121" t="n">
         <v>1</v>
       </c>
+      <c r="AI121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -16901,6 +22376,51 @@
       <c r="AH122" t="n">
         <v>1</v>
       </c>
+      <c r="AI122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -17043,6 +22563,51 @@
       <c r="AH123" t="n">
         <v>0</v>
       </c>
+      <c r="AI123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -17185,6 +22750,51 @@
       <c r="AH124" t="n">
         <v>0</v>
       </c>
+      <c r="AI124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -17327,6 +22937,51 @@
       <c r="AH125" t="n">
         <v>0</v>
       </c>
+      <c r="AI125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -17469,6 +23124,51 @@
       <c r="AH126" t="n">
         <v>0</v>
       </c>
+      <c r="AI126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -17611,6 +23311,51 @@
       <c r="AH127" t="n">
         <v>0</v>
       </c>
+      <c r="AI127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -17753,6 +23498,51 @@
       <c r="AH128" t="n">
         <v>0</v>
       </c>
+      <c r="AI128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -17895,6 +23685,51 @@
       <c r="AH129" t="n">
         <v>1</v>
       </c>
+      <c r="AI129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -18037,6 +23872,51 @@
       <c r="AH130" t="n">
         <v>0</v>
       </c>
+      <c r="AI130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -18179,6 +24059,51 @@
       <c r="AH131" t="n">
         <v>0</v>
       </c>
+      <c r="AI131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -18321,6 +24246,51 @@
       <c r="AH132" t="n">
         <v>0</v>
       </c>
+      <c r="AI132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -18463,6 +24433,51 @@
       <c r="AH133" t="n">
         <v>0</v>
       </c>
+      <c r="AI133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -18605,6 +24620,51 @@
       <c r="AH134" t="n">
         <v>0</v>
       </c>
+      <c r="AI134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -18747,6 +24807,51 @@
       <c r="AH135" t="n">
         <v>0</v>
       </c>
+      <c r="AI135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -18889,6 +24994,51 @@
       <c r="AH136" t="n">
         <v>0</v>
       </c>
+      <c r="AI136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -19031,6 +25181,51 @@
       <c r="AH137" t="n">
         <v>1</v>
       </c>
+      <c r="AI137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -19173,6 +25368,51 @@
       <c r="AH138" t="n">
         <v>0</v>
       </c>
+      <c r="AI138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -19311,6 +25551,51 @@
       <c r="AH139" t="n">
         <v>0</v>
       </c>
+      <c r="AI139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -19453,6 +25738,51 @@
       <c r="AH140" t="n">
         <v>0</v>
       </c>
+      <c r="AI140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -19595,6 +25925,51 @@
       <c r="AH141" t="n">
         <v>0</v>
       </c>
+      <c r="AI141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -19737,6 +26112,51 @@
       <c r="AH142" t="n">
         <v>0</v>
       </c>
+      <c r="AI142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -19879,6 +26299,51 @@
       <c r="AH143" t="n">
         <v>0</v>
       </c>
+      <c r="AI143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -20021,6 +26486,51 @@
       <c r="AH144" t="n">
         <v>1</v>
       </c>
+      <c r="AI144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -20163,6 +26673,51 @@
       <c r="AH145" t="n">
         <v>0</v>
       </c>
+      <c r="AI145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -20305,6 +26860,51 @@
       <c r="AH146" t="n">
         <v>1</v>
       </c>
+      <c r="AI146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -20447,6 +27047,51 @@
       <c r="AH147" t="n">
         <v>1</v>
       </c>
+      <c r="AI147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -20589,6 +27234,51 @@
       <c r="AH148" t="n">
         <v>0</v>
       </c>
+      <c r="AI148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -20731,6 +27421,51 @@
       <c r="AH149" t="n">
         <v>0</v>
       </c>
+      <c r="AI149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -20873,6 +27608,51 @@
       <c r="AH150" t="n">
         <v>1</v>
       </c>
+      <c r="AI150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -21015,6 +27795,51 @@
       <c r="AH151" t="n">
         <v>0</v>
       </c>
+      <c r="AI151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -21157,6 +27982,51 @@
       <c r="AH152" t="n">
         <v>1</v>
       </c>
+      <c r="AI152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -21299,6 +28169,51 @@
       <c r="AH153" t="n">
         <v>1</v>
       </c>
+      <c r="AI153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -21435,6 +28350,51 @@
       <c r="AH154" t="n">
         <v>0</v>
       </c>
+      <c r="AI154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -21577,6 +28537,51 @@
       <c r="AH155" t="n">
         <v>1</v>
       </c>
+      <c r="AI155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -21719,6 +28724,51 @@
       <c r="AH156" t="n">
         <v>0</v>
       </c>
+      <c r="AI156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -21855,6 +28905,51 @@
       <c r="AH157" t="n">
         <v>1</v>
       </c>
+      <c r="AI157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -21997,6 +29092,51 @@
       <c r="AH158" t="n">
         <v>1</v>
       </c>
+      <c r="AI158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -22139,6 +29279,51 @@
       <c r="AH159" t="n">
         <v>1</v>
       </c>
+      <c r="AI159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -22281,6 +29466,51 @@
       <c r="AH160" t="n">
         <v>1</v>
       </c>
+      <c r="AI160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -22423,6 +29653,51 @@
       <c r="AH161" t="n">
         <v>0</v>
       </c>
+      <c r="AI161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -22565,6 +29840,51 @@
       <c r="AH162" t="n">
         <v>0</v>
       </c>
+      <c r="AI162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -22707,6 +30027,51 @@
       <c r="AH163" t="n">
         <v>1</v>
       </c>
+      <c r="AI163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -22849,6 +30214,51 @@
       <c r="AH164" t="n">
         <v>0</v>
       </c>
+      <c r="AI164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -22991,6 +30401,51 @@
       <c r="AH165" t="n">
         <v>0</v>
       </c>
+      <c r="AI165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -23131,6 +30586,51 @@
         <v>1</v>
       </c>
       <c r="AH166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23249,6 +30749,51 @@
       <c r="AH167" t="n">
         <v>0</v>
       </c>
+      <c r="AI167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -23385,6 +30930,51 @@
       <c r="AH168" t="n">
         <v>0</v>
       </c>
+      <c r="AI168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -23527,6 +31117,51 @@
       <c r="AH169" t="n">
         <v>1</v>
       </c>
+      <c r="AI169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -23667,6 +31302,51 @@
         <v>0</v>
       </c>
       <c r="AH170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23771,6 +31451,51 @@
         <v>1</v>
       </c>
       <c r="AH171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23851,6 +31576,51 @@
       <c r="AH172" t="n">
         <v>1</v>
       </c>
+      <c r="AI172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -23939,6 +31709,51 @@
       <c r="AH173" t="n">
         <v>0</v>
       </c>
+      <c r="AI173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -24023,6 +31838,51 @@
       <c r="AH174" t="n">
         <v>0</v>
       </c>
+      <c r="AI174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -24115,6 +31975,51 @@
       <c r="AH175" t="n">
         <v>0</v>
       </c>
+      <c r="AI175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -24211,6 +32116,51 @@
       <c r="AH176" t="n">
         <v>0</v>
       </c>
+      <c r="AI176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -24319,6 +32269,51 @@
       <c r="AH177" t="n">
         <v>1</v>
       </c>
+      <c r="AI177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -24425,6 +32420,51 @@
         <v>0</v>
       </c>
       <c r="AH178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24523,6 +32563,51 @@
       <c r="AH179" t="n">
         <v>0</v>
       </c>
+      <c r="AI179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -24621,6 +32706,51 @@
       <c r="AH180" t="n">
         <v>1</v>
       </c>
+      <c r="AI180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -24728,6 +32858,51 @@
       </c>
       <c r="AH181" t="n">
         <v>1</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -24831,6 +33006,51 @@
       <c r="AH182" t="n">
         <v>1</v>
       </c>
+      <c r="AI182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -24939,6 +33159,51 @@
       <c r="AH183" t="n">
         <v>1</v>
       </c>
+      <c r="AI183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -25047,6 +33312,51 @@
       <c r="AH184" t="n">
         <v>0</v>
       </c>
+      <c r="AI184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -25155,6 +33465,51 @@
       <c r="AH185" t="n">
         <v>1</v>
       </c>
+      <c r="AI185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -25263,6 +33618,51 @@
       <c r="AH186" t="n">
         <v>1</v>
       </c>
+      <c r="AI186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -25402,6 +33802,51 @@
       </c>
       <c r="AH187" t="n">
         <v>0</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
